--- a/Suvella/bin/Debug/net8.0-windows/target_production.xlsx
+++ b/Suvella/bin/Debug/net8.0-windows/target_production.xlsx
@@ -17,16 +17,16 @@
     <t>Item Name</t>
   </si>
   <si>
-    <t>Shipped Quantity</t>
+    <t>Production Target</t>
   </si>
   <si>
     <t>Processing Quantity</t>
   </si>
   <si>
-    <t>Inventory Quantity</t>
+    <t>Shipped Quantity</t>
   </si>
   <si>
-    <t>Production Target</t>
+    <t>Inventory Quantity</t>
   </si>
   <si>
     <t>Red velvet</t>
@@ -112,16 +112,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0">
         <v>4</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -129,7 +129,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3" s="0">
         <v>5</v>
@@ -138,7 +138,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -146,7 +146,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0">
         <v>7</v>
@@ -155,7 +155,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -163,7 +163,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0">
         <v>3</v>
@@ -172,7 +172,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Suvella/bin/Debug/net8.0-windows/target_production.xlsx
+++ b/Suvella/bin/Debug/net8.0-windows/target_production.xlsx
@@ -112,7 +112,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0">
         <v>4</v>
@@ -121,7 +121,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -129,7 +129,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0">
         <v>5</v>
@@ -138,7 +138,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -163,7 +163,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0">
         <v>3</v>
@@ -172,7 +172,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Suvella/bin/Debug/net8.0-windows/target_production.xlsx
+++ b/Suvella/bin/Debug/net8.0-windows/target_production.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Item Name</t>
   </si>
@@ -29,16 +29,7 @@
     <t>Inventory Quantity</t>
   </si>
   <si>
-    <t>Red velvet</t>
-  </si>
-  <si>
-    <t>Su Sing mix 3 vị</t>
-  </si>
-  <si>
-    <t>Su Sing matcha</t>
-  </si>
-  <si>
-    <t>Bông lan trứng muối matcha</t>
+    <t>Tiramisu lady</t>
   </si>
 </sst>
 </file>
@@ -84,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -112,67 +103,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="0">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0">
         <v>4</v>
       </c>
-      <c r="D2" s="0">
-        <v>0</v>
-      </c>
       <c r="E2" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0">
-        <v>8</v>
-      </c>
-      <c r="C3" s="0">
-        <v>5</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0">
-        <v>7</v>
-      </c>
-      <c r="D4" s="0">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="0">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0">
-        <v>3</v>
-      </c>
-      <c r="D5" s="0">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0">
-        <v>6</v>
+        <v>-10</v>
       </c>
     </row>
   </sheetData>

--- a/Suvella/bin/Debug/net8.0-windows/target_production.xlsx
+++ b/Suvella/bin/Debug/net8.0-windows/target_production.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Item Name</t>
   </si>
@@ -30,6 +30,15 @@
   </si>
   <si>
     <t>Tiramisu lady</t>
+  </si>
+  <si>
+    <t>Su Sing vani</t>
+  </si>
+  <si>
+    <t>Matcha latte</t>
+  </si>
+  <si>
+    <t>Bông lan trứng muối matcha</t>
   </si>
 </sst>
 </file>
@@ -75,7 +84,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -106,13 +115,64 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="0">
         <v>4</v>
       </c>
       <c r="E2" s="0">
-        <v>-10</v>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0">
+        <v>4</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Suvella/bin/Debug/net8.0-windows/target_production.xlsx
+++ b/Suvella/bin/Debug/net8.0-windows/target_production.xlsx
@@ -115,13 +115,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0">
         <v>4</v>
       </c>
       <c r="E2" s="0">
-        <v>-13</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="3">

--- a/Suvella/bin/Debug/net8.0-windows/target_production.xlsx
+++ b/Suvella/bin/Debug/net8.0-windows/target_production.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Item Name</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>Bông lan trứng muối matcha</t>
+  </si>
+  <si>
+    <t>Bông lan trứng muối truyền thống</t>
+  </si>
+  <si>
+    <t>Tiramisu chiffon</t>
   </si>
 </sst>
 </file>
@@ -84,7 +90,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -112,16 +118,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="0">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" s="0">
         <v>4</v>
       </c>
       <c r="E2" s="0">
-        <v>-14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -129,16 +135,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="0">
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>-4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -146,16 +152,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -163,16 +169,50 @@
         <v>8</v>
       </c>
       <c r="B5" s="0">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C5" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0">
+        <v>8</v>
+      </c>
+      <c r="C7" s="0">
         <v>1</v>
       </c>
-      <c r="D5" s="0">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0">
-        <v>-1</v>
+      <c r="D7" s="0">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Suvella/bin/Debug/net8.0-windows/target_production.xlsx
+++ b/Suvella/bin/Debug/net8.0-windows/target_production.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Item Name</t>
   </si>
@@ -29,22 +29,13 @@
     <t>Inventory Quantity</t>
   </si>
   <si>
-    <t>Tiramisu lady</t>
-  </si>
-  <si>
-    <t>Su Sing vani</t>
-  </si>
-  <si>
-    <t>Matcha latte</t>
-  </si>
-  <si>
-    <t>Bông lan trứng muối matcha</t>
+    <t>Tiramisu chiffon</t>
   </si>
   <si>
     <t>Bông lan trứng muối truyền thống</t>
   </si>
   <si>
-    <t>Tiramisu chiffon</t>
+    <t>Bông lan trứng muối matcha</t>
   </si>
 </sst>
 </file>
@@ -90,7 +81,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -118,16 +109,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="0">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D2" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -135,16 +126,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" s="0">
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -152,66 +143,15 @@
         <v>7</v>
       </c>
       <c r="B4" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="0">
-        <v>8</v>
-      </c>
-      <c r="C5" s="0">
-        <v>2</v>
-      </c>
-      <c r="D5" s="0">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="0">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0">
-        <v>5</v>
-      </c>
-      <c r="D6" s="0">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="0">
-        <v>8</v>
-      </c>
-      <c r="C7" s="0">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0">
         <v>7</v>
       </c>
     </row>
